--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Btc-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Btc-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,10 +546,10 @@
         <v>1.912506</v>
       </c>
       <c r="I2">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="J2">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.709791333333333</v>
+        <v>3.248861</v>
       </c>
       <c r="N2">
-        <v>11.129374</v>
+        <v>9.746582999999999</v>
       </c>
       <c r="O2">
-        <v>0.4283284425582907</v>
+        <v>0.3767295193213461</v>
       </c>
       <c r="P2">
-        <v>0.4283284425582907</v>
+        <v>0.376729519321346</v>
       </c>
       <c r="Q2">
-        <v>2.364999394582667</v>
+        <v>2.071155385222</v>
       </c>
       <c r="R2">
-        <v>21.284994551244</v>
+        <v>18.640398466998</v>
       </c>
       <c r="S2">
-        <v>0.2648719862062164</v>
+        <v>0.1892213732606779</v>
       </c>
       <c r="T2">
-        <v>0.2648719862062164</v>
+        <v>0.1892213732606779</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +608,10 @@
         <v>1.912506</v>
       </c>
       <c r="I3">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="J3">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,16 +620,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.599001333333333</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N3">
         <v>10.797004</v>
       </c>
       <c r="O3">
-        <v>0.4155367505499981</v>
+        <v>0.417330886838049</v>
       </c>
       <c r="P3">
-        <v>0.4155367505499981</v>
+        <v>0.4173308868380489</v>
       </c>
       <c r="Q3">
         <v>2.294370548002667</v>
@@ -632,10 +638,10 @@
         <v>20.649334932024</v>
       </c>
       <c r="S3">
-        <v>0.256961792689909</v>
+        <v>0.2096143770571731</v>
       </c>
       <c r="T3">
-        <v>0.256961792689909</v>
+        <v>0.209614377057173</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +655,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,45 +670,45 @@
         <v>1.912506</v>
       </c>
       <c r="I4">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="J4">
-        <v>0.6183852387299037</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.352297666666667</v>
+        <v>0.02714433333333334</v>
       </c>
       <c r="N4">
-        <v>4.056893000000001</v>
+        <v>0.08143300000000001</v>
       </c>
       <c r="O4">
-        <v>0.1561348068917112</v>
+        <v>0.003147586692371591</v>
       </c>
       <c r="P4">
-        <v>0.1561348068917112</v>
+        <v>0.003147586692371591</v>
       </c>
       <c r="Q4">
-        <v>0.8620924670953335</v>
+        <v>0.01730456678866667</v>
       </c>
       <c r="R4">
-        <v>7.758832203858002</v>
+        <v>0.155741101098</v>
       </c>
       <c r="S4">
-        <v>0.09655145983377826</v>
+        <v>0.001580950379095606</v>
       </c>
       <c r="T4">
-        <v>0.09655145983377826</v>
+        <v>0.001580950379095606</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,25 +717,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.393412</v>
+        <v>0.637502</v>
       </c>
       <c r="H5">
-        <v>1.180236</v>
+        <v>1.912506</v>
       </c>
       <c r="I5">
-        <v>0.3816147612700962</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="J5">
-        <v>0.3816147612700962</v>
+        <v>0.5022738159769057</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.709791333333333</v>
+        <v>1.711959</v>
       </c>
       <c r="N5">
-        <v>11.129374</v>
+        <v>5.135877</v>
       </c>
       <c r="O5">
-        <v>0.4283284425582907</v>
+        <v>0.1985143381535413</v>
       </c>
       <c r="P5">
-        <v>0.4283284425582907</v>
+        <v>0.1985143381535413</v>
       </c>
       <c r="Q5">
-        <v>1.459476428029334</v>
+        <v>1.091377286418</v>
       </c>
       <c r="R5">
-        <v>13.135287852264</v>
+        <v>9.822395577762</v>
       </c>
       <c r="S5">
-        <v>0.1634564563520742</v>
+        <v>0.09970855415050904</v>
       </c>
       <c r="T5">
-        <v>0.1634564563520742</v>
+        <v>0.09970855415050901</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -773,55 +779,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.637502</v>
+      </c>
+      <c r="H6">
+        <v>1.912506</v>
+      </c>
+      <c r="I6">
+        <v>0.5022738159769057</v>
+      </c>
+      <c r="J6">
+        <v>0.5022738159769057</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.393412</v>
-      </c>
-      <c r="H6">
-        <v>1.180236</v>
-      </c>
-      <c r="I6">
-        <v>0.3816147612700962</v>
-      </c>
-      <c r="J6">
-        <v>0.3816147612700962</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>3.599001333333333</v>
+        <v>0.03689</v>
       </c>
       <c r="N6">
-        <v>10.797004</v>
+        <v>0.11067</v>
       </c>
       <c r="O6">
-        <v>0.4155367505499981</v>
+        <v>0.004277668994692127</v>
       </c>
       <c r="P6">
-        <v>0.4155367505499981</v>
+        <v>0.004277668994692126</v>
       </c>
       <c r="Q6">
-        <v>1.415890312549333</v>
+        <v>0.02351744878</v>
       </c>
       <c r="R6">
-        <v>12.743012812944</v>
+        <v>0.21165703902</v>
       </c>
       <c r="S6">
-        <v>0.158574957860089</v>
+        <v>0.002148561129450109</v>
       </c>
       <c r="T6">
-        <v>0.158574957860089</v>
+        <v>0.002148561129450108</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,55 +841,303 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.63173</v>
+      </c>
+      <c r="H7">
+        <v>1.89519</v>
+      </c>
+      <c r="I7">
+        <v>0.4977261840230943</v>
+      </c>
+      <c r="J7">
+        <v>0.4977261840230943</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.248861</v>
+      </c>
+      <c r="N7">
+        <v>9.746582999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.3767295193213461</v>
+      </c>
+      <c r="P7">
+        <v>0.376729519321346</v>
+      </c>
+      <c r="Q7">
+        <v>2.05240295953</v>
+      </c>
+      <c r="R7">
+        <v>18.47162663577</v>
+      </c>
+      <c r="S7">
+        <v>0.1875081460606682</v>
+      </c>
+      <c r="T7">
+        <v>0.1875081460606681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.63173</v>
+      </c>
+      <c r="H8">
+        <v>1.89519</v>
+      </c>
+      <c r="I8">
+        <v>0.4977261840230943</v>
+      </c>
+      <c r="J8">
+        <v>0.4977261840230943</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.599001333333334</v>
+      </c>
+      <c r="N8">
+        <v>10.797004</v>
+      </c>
+      <c r="O8">
+        <v>0.417330886838049</v>
+      </c>
+      <c r="P8">
+        <v>0.4173308868380489</v>
+      </c>
+      <c r="Q8">
+        <v>2.273597112306667</v>
+      </c>
+      <c r="R8">
+        <v>20.46237401076</v>
+      </c>
+      <c r="S8">
+        <v>0.2077165097808759</v>
+      </c>
+      <c r="T8">
+        <v>0.2077165097808759</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.63173</v>
+      </c>
+      <c r="H9">
+        <v>1.89519</v>
+      </c>
+      <c r="I9">
+        <v>0.4977261840230943</v>
+      </c>
+      <c r="J9">
+        <v>0.4977261840230943</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.02714433333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.08143300000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.003147586692371591</v>
+      </c>
+      <c r="P9">
+        <v>0.003147586692371591</v>
+      </c>
+      <c r="Q9">
+        <v>0.01714788969666667</v>
+      </c>
+      <c r="R9">
+        <v>0.15433100727</v>
+      </c>
+      <c r="S9">
+        <v>0.001566636313275985</v>
+      </c>
+      <c r="T9">
+        <v>0.001566636313275985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.63173</v>
+      </c>
+      <c r="H10">
+        <v>1.89519</v>
+      </c>
+      <c r="I10">
+        <v>0.4977261840230943</v>
+      </c>
+      <c r="J10">
+        <v>0.4977261840230943</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.711959</v>
+      </c>
+      <c r="N10">
+        <v>5.135877</v>
+      </c>
+      <c r="O10">
+        <v>0.1985143381535413</v>
+      </c>
+      <c r="P10">
+        <v>0.1985143381535413</v>
+      </c>
+      <c r="Q10">
+        <v>1.08149585907</v>
+      </c>
+      <c r="R10">
+        <v>9.73346273163</v>
+      </c>
+      <c r="S10">
+        <v>0.09880578400303228</v>
+      </c>
+      <c r="T10">
+        <v>0.09880578400303226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.63173</v>
+      </c>
+      <c r="H11">
+        <v>1.89519</v>
+      </c>
+      <c r="I11">
+        <v>0.4977261840230943</v>
+      </c>
+      <c r="J11">
+        <v>0.4977261840230943</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="L11">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G7">
-        <v>0.393412</v>
-      </c>
-      <c r="H7">
-        <v>1.180236</v>
-      </c>
-      <c r="I7">
-        <v>0.3816147612700962</v>
-      </c>
-      <c r="J7">
-        <v>0.3816147612700962</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.352297666666667</v>
-      </c>
-      <c r="N7">
-        <v>4.056893000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.1561348068917112</v>
-      </c>
-      <c r="P7">
-        <v>0.1561348068917112</v>
-      </c>
-      <c r="Q7">
-        <v>0.5320101296386668</v>
-      </c>
-      <c r="R7">
-        <v>4.788091166748001</v>
-      </c>
-      <c r="S7">
-        <v>0.05958334705793296</v>
-      </c>
-      <c r="T7">
-        <v>0.05958334705793296</v>
+      <c r="M11">
+        <v>0.03689</v>
+      </c>
+      <c r="N11">
+        <v>0.11067</v>
+      </c>
+      <c r="O11">
+        <v>0.004277668994692127</v>
+      </c>
+      <c r="P11">
+        <v>0.004277668994692126</v>
+      </c>
+      <c r="Q11">
+        <v>0.0233045197</v>
+      </c>
+      <c r="R11">
+        <v>0.2097406773</v>
+      </c>
+      <c r="S11">
+        <v>0.002129107865242019</v>
+      </c>
+      <c r="T11">
+        <v>0.002129107865242018</v>
       </c>
     </row>
   </sheetData>
